--- a/Code/Results/Cases/Case_2_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021890146922328</v>
+        <v>1.04412441691274</v>
       </c>
       <c r="D2">
-        <v>1.040892857403277</v>
+        <v>1.053205378258711</v>
       </c>
       <c r="E2">
-        <v>1.03308507857867</v>
+        <v>1.057909509656376</v>
       </c>
       <c r="F2">
-        <v>1.04372998899783</v>
+        <v>1.065005961470826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057515055617479</v>
+        <v>1.046080679249341</v>
       </c>
       <c r="J2">
-        <v>1.043435274707071</v>
+        <v>1.049191183350932</v>
       </c>
       <c r="K2">
-        <v>1.051810436029696</v>
+        <v>1.055951989628414</v>
       </c>
       <c r="L2">
-        <v>1.04410195338282</v>
+        <v>1.060643189174065</v>
       </c>
       <c r="M2">
-        <v>1.054611944938483</v>
+        <v>1.06772036649294</v>
       </c>
       <c r="N2">
-        <v>1.044917072480854</v>
+        <v>1.050681155175201</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026114112183714</v>
+        <v>1.045007687974078</v>
       </c>
       <c r="D3">
-        <v>1.044272358756195</v>
+        <v>1.053935011560526</v>
       </c>
       <c r="E3">
-        <v>1.037119629713843</v>
+        <v>1.05884279773517</v>
       </c>
       <c r="F3">
-        <v>1.047785731767661</v>
+        <v>1.06592500943221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059031272806409</v>
+        <v>1.046334198122602</v>
       </c>
       <c r="J3">
-        <v>1.04591733870312</v>
+        <v>1.049721909684294</v>
       </c>
       <c r="K3">
-        <v>1.054368451066454</v>
+        <v>1.056494834988576</v>
       </c>
       <c r="L3">
-        <v>1.047298605508624</v>
+        <v>1.06139010337202</v>
       </c>
       <c r="M3">
-        <v>1.057841623556731</v>
+        <v>1.068454470075673</v>
       </c>
       <c r="N3">
-        <v>1.047402661292474</v>
+        <v>1.051212635200832</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028792997649711</v>
+        <v>1.045579565676865</v>
       </c>
       <c r="D4">
-        <v>1.046418013813449</v>
+        <v>1.054407417981282</v>
       </c>
       <c r="E4">
-        <v>1.039688004141074</v>
+        <v>1.059447926233275</v>
       </c>
       <c r="F4">
-        <v>1.050364840747391</v>
+        <v>1.066520618901129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059982548432234</v>
+        <v>1.046497069572438</v>
       </c>
       <c r="J4">
-        <v>1.047487790666176</v>
+        <v>1.050065008084149</v>
       </c>
       <c r="K4">
-        <v>1.055986721863212</v>
+        <v>1.056845706469799</v>
       </c>
       <c r="L4">
-        <v>1.049329911846265</v>
+        <v>1.061874004772537</v>
       </c>
       <c r="M4">
-        <v>1.059891155263478</v>
+        <v>1.068929773769331</v>
       </c>
       <c r="N4">
-        <v>1.048975343477451</v>
+        <v>1.051556220839768</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029906627438942</v>
+        <v>1.045820063759308</v>
       </c>
       <c r="D5">
-        <v>1.047310497830985</v>
+        <v>1.054606084350998</v>
       </c>
       <c r="E5">
-        <v>1.040757975630721</v>
+        <v>1.059702614881722</v>
       </c>
       <c r="F5">
-        <v>1.05143862314693</v>
+        <v>1.066771232770562</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060375486206694</v>
+        <v>1.046565259420685</v>
       </c>
       <c r="J5">
-        <v>1.048139721375966</v>
+        <v>1.050209169714762</v>
       </c>
       <c r="K5">
-        <v>1.056658440741123</v>
+        <v>1.056993119361037</v>
       </c>
       <c r="L5">
-        <v>1.050175259199662</v>
+        <v>1.062077578780311</v>
       </c>
       <c r="M5">
-        <v>1.060743423008918</v>
+        <v>1.069129659440613</v>
       </c>
       <c r="N5">
-        <v>1.049628200003627</v>
+        <v>1.051700587196432</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030092885483892</v>
+        <v>1.045860449141605</v>
       </c>
       <c r="D6">
-        <v>1.047459798091526</v>
+        <v>1.054639445177199</v>
       </c>
       <c r="E6">
-        <v>1.040937065105356</v>
+        <v>1.059745395341987</v>
       </c>
       <c r="F6">
-        <v>1.051618311637442</v>
+        <v>1.066813324777135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060441057477318</v>
+        <v>1.046576692280437</v>
       </c>
       <c r="J6">
-        <v>1.04824870414445</v>
+        <v>1.050233370545063</v>
       </c>
       <c r="K6">
-        <v>1.056770727643975</v>
+        <v>1.057017865119711</v>
       </c>
       <c r="L6">
-        <v>1.050316699470646</v>
+        <v>1.062111768033019</v>
       </c>
       <c r="M6">
-        <v>1.060885982076667</v>
+        <v>1.069163225073205</v>
       </c>
       <c r="N6">
-        <v>1.049737337540142</v>
+        <v>1.051724822394688</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028807926880579</v>
+        <v>1.045582778908482</v>
       </c>
       <c r="D7">
-        <v>1.046429976373154</v>
+        <v>1.054410072310785</v>
       </c>
       <c r="E7">
-        <v>1.039702339112065</v>
+        <v>1.059451328247544</v>
       </c>
       <c r="F7">
-        <v>1.050379229383801</v>
+        <v>1.066523966754797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059987826099707</v>
+        <v>1.046497981834727</v>
       </c>
       <c r="J7">
-        <v>1.047496534052339</v>
+        <v>1.050066934682524</v>
       </c>
       <c r="K7">
-        <v>1.055995730893441</v>
+        <v>1.056847676576788</v>
       </c>
       <c r="L7">
-        <v>1.049341240905835</v>
+        <v>1.061876724382607</v>
       </c>
       <c r="M7">
-        <v>1.059902579692853</v>
+        <v>1.068932444385931</v>
       </c>
       <c r="N7">
-        <v>1.048984099280225</v>
+        <v>1.051558150174133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023329162696821</v>
+        <v>1.044422850887739</v>
       </c>
       <c r="D8">
-        <v>1.04204366755923</v>
+        <v>1.05345190136523</v>
       </c>
       <c r="E8">
-        <v>1.03445753268928</v>
+        <v>1.058224663402723</v>
       </c>
       <c r="F8">
-        <v>1.045110228360773</v>
+        <v>1.065316365780467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05803374123043</v>
+        <v>1.046166599445485</v>
       </c>
       <c r="J8">
-        <v>1.044281619704762</v>
+        <v>1.049370609817215</v>
       </c>
       <c r="K8">
-        <v>1.05268272536217</v>
+        <v>1.05613552595755</v>
       </c>
       <c r="L8">
-        <v>1.04519013861436</v>
+        <v>1.06089548773097</v>
       </c>
       <c r="M8">
-        <v>1.055711949879291</v>
+        <v>1.067968399475176</v>
       </c>
       <c r="N8">
-        <v>1.045764619385519</v>
+        <v>1.050860836447647</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013238771533849</v>
+        <v>1.042381585726858</v>
       </c>
       <c r="D9">
-        <v>1.033985777956299</v>
+        <v>1.051765729465127</v>
       </c>
       <c r="E9">
-        <v>1.024875797282615</v>
+        <v>1.056072601119877</v>
       </c>
       <c r="F9">
-        <v>1.035462519119637</v>
+        <v>1.063195563886838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05435442736349</v>
+        <v>1.045573713582563</v>
       </c>
       <c r="J9">
-        <v>1.038332542721996</v>
+        <v>1.048141214304249</v>
       </c>
       <c r="K9">
-        <v>1.046550515463353</v>
+        <v>1.054877720803433</v>
       </c>
       <c r="L9">
-        <v>1.037577774675192</v>
+        <v>1.059171060420324</v>
       </c>
       <c r="M9">
-        <v>1.048005298989142</v>
+        <v>1.066271905806977</v>
       </c>
       <c r="N9">
-        <v>1.039807094031068</v>
+        <v>1.049629695052039</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006188657166879</v>
+        <v>1.041022614673324</v>
       </c>
       <c r="D10">
-        <v>1.02837246077776</v>
+        <v>1.05064321441152</v>
       </c>
       <c r="E10">
-        <v>1.018235750769616</v>
+        <v>1.054644355862133</v>
       </c>
       <c r="F10">
-        <v>1.028761989980095</v>
+        <v>1.061786592136019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051731635977953</v>
+        <v>1.045172480461326</v>
       </c>
       <c r="J10">
-        <v>1.034158870256943</v>
+        <v>1.047320077062196</v>
       </c>
       <c r="K10">
-        <v>1.042247665311509</v>
+        <v>1.054037297582125</v>
       </c>
       <c r="L10">
-        <v>1.032283378209207</v>
+        <v>1.05802463671476</v>
       </c>
       <c r="M10">
-        <v>1.042630656119839</v>
+        <v>1.065142519392152</v>
       </c>
       <c r="N10">
-        <v>1.035627494472388</v>
+        <v>1.048807391700916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003052004214735</v>
+        <v>1.040434624406201</v>
       </c>
       <c r="D11">
-        <v>1.025879676905245</v>
+        <v>1.050157550863614</v>
       </c>
       <c r="E11">
-        <v>1.015295008132101</v>
+        <v>1.054027461763234</v>
       </c>
       <c r="F11">
-        <v>1.025790944442505</v>
+        <v>1.06117767236134</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050552923293024</v>
+        <v>1.04499733300944</v>
       </c>
       <c r="J11">
-        <v>1.032298365125574</v>
+        <v>1.046964163017937</v>
       </c>
       <c r="K11">
-        <v>1.040329504243088</v>
+        <v>1.053672951476536</v>
       </c>
       <c r="L11">
-        <v>1.029934134476399</v>
+        <v>1.057528996345271</v>
       </c>
       <c r="M11">
-        <v>1.040242337640333</v>
+        <v>1.064653880750297</v>
       </c>
       <c r="N11">
-        <v>1.03376434721033</v>
+        <v>1.04845097221789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001873643921741</v>
+        <v>1.0402162879005</v>
       </c>
       <c r="D12">
-        <v>1.024943956341575</v>
+        <v>1.049977214294108</v>
       </c>
       <c r="E12">
-        <v>1.014192315426684</v>
+        <v>1.053798553541171</v>
       </c>
       <c r="F12">
-        <v>1.024676359219474</v>
+        <v>1.0609516704025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050108384016297</v>
+        <v>1.044932064119551</v>
       </c>
       <c r="J12">
-        <v>1.031598918905456</v>
+        <v>1.04683190818133</v>
       </c>
       <c r="K12">
-        <v>1.039608380093663</v>
+        <v>1.053537552500514</v>
       </c>
       <c r="L12">
-        <v>1.02905257222303</v>
+        <v>1.057345010204508</v>
       </c>
       <c r="M12">
-        <v>1.039345592249894</v>
+        <v>1.064472438966891</v>
       </c>
       <c r="N12">
-        <v>1.033063907696351</v>
+        <v>1.048318529564246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002127017706815</v>
+        <v>1.040263118669058</v>
       </c>
       <c r="D13">
-        <v>1.025145122084004</v>
+        <v>1.050015894339239</v>
       </c>
       <c r="E13">
-        <v>1.014429324736054</v>
+        <v>1.053847644531461</v>
       </c>
       <c r="F13">
-        <v>1.024915948640956</v>
+        <v>1.061000140512257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05020404714422</v>
+        <v>1.044946074070753</v>
       </c>
       <c r="J13">
-        <v>1.031749337498459</v>
+        <v>1.04686027965299</v>
       </c>
       <c r="K13">
-        <v>1.039763460583902</v>
+        <v>1.053566598946715</v>
       </c>
       <c r="L13">
-        <v>1.029242082374709</v>
+        <v>1.057384470552041</v>
       </c>
       <c r="M13">
-        <v>1.039538389830178</v>
+        <v>1.0645113560928</v>
       </c>
       <c r="N13">
-        <v>1.03321453990101</v>
+        <v>1.048346941326649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00295487522432</v>
+        <v>1.040416575222833</v>
       </c>
       <c r="D14">
-        <v>1.025802532346566</v>
+        <v>1.050142642943911</v>
       </c>
       <c r="E14">
-        <v>1.015204073878039</v>
+        <v>1.054008535361731</v>
       </c>
       <c r="F14">
-        <v>1.025699040250299</v>
+        <v>1.061158987329764</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050516315973757</v>
+        <v>1.044991942169965</v>
       </c>
       <c r="J14">
-        <v>1.032240721673628</v>
+        <v>1.046953231857349</v>
       </c>
       <c r="K14">
-        <v>1.040270074249845</v>
+        <v>1.053661760666654</v>
       </c>
       <c r="L14">
-        <v>1.029861449363375</v>
+        <v>1.057513785604196</v>
       </c>
       <c r="M14">
-        <v>1.040168411246817</v>
+        <v>1.064638881476922</v>
       </c>
       <c r="N14">
-        <v>1.03370662189807</v>
+        <v>1.048440025533801</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003463166927678</v>
+        <v>1.04051113408317</v>
       </c>
       <c r="D15">
-        <v>1.026206273412451</v>
+        <v>1.050220745002822</v>
       </c>
       <c r="E15">
-        <v>1.015680032155124</v>
+        <v>1.054107696527017</v>
       </c>
       <c r="F15">
-        <v>1.026180053648421</v>
+        <v>1.061256881723651</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050707817871043</v>
+        <v>1.04502017503587</v>
       </c>
       <c r="J15">
-        <v>1.032542358946177</v>
+        <v>1.047010495849692</v>
       </c>
       <c r="K15">
-        <v>1.04058106010306</v>
+        <v>1.053720384414229</v>
       </c>
       <c r="L15">
-        <v>1.030241862883542</v>
+        <v>1.057593476385979</v>
       </c>
       <c r="M15">
-        <v>1.040555300069093</v>
+        <v>1.064717462112835</v>
       </c>
       <c r="N15">
-        <v>1.034008687530144</v>
+        <v>1.048497370847582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006395003183881</v>
+        <v>1.041061647298909</v>
       </c>
       <c r="D16">
-        <v>1.02853655098631</v>
+        <v>1.050675454704756</v>
       </c>
       <c r="E16">
-        <v>1.01842949323494</v>
+        <v>1.054685329783546</v>
       </c>
       <c r="F16">
-        <v>1.028957655322557</v>
+        <v>1.061827029007878</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051808935876619</v>
+        <v>1.045184074750062</v>
       </c>
       <c r="J16">
-        <v>1.03428119253577</v>
+        <v>1.047343690485881</v>
       </c>
       <c r="K16">
-        <v>1.042373777475466</v>
+        <v>1.054061468912738</v>
       </c>
       <c r="L16">
-        <v>1.03243805878625</v>
+        <v>1.058057547037595</v>
       </c>
       <c r="M16">
-        <v>1.042787837204395</v>
+        <v>1.065174957123362</v>
       </c>
       <c r="N16">
-        <v>1.035749990462882</v>
+        <v>1.048831038658372</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008211148788687</v>
+        <v>1.041407091849962</v>
       </c>
       <c r="D17">
-        <v>1.029981317750975</v>
+        <v>1.050960788310676</v>
       </c>
       <c r="E17">
-        <v>1.020136248228388</v>
+        <v>1.055048078714542</v>
       </c>
       <c r="F17">
-        <v>1.030680948144867</v>
+        <v>1.062184982809505</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052487948114615</v>
+        <v>1.04528650743266</v>
       </c>
       <c r="J17">
-        <v>1.035357400998428</v>
+        <v>1.047552600020201</v>
       </c>
       <c r="K17">
-        <v>1.043483322640232</v>
+        <v>1.054275305897796</v>
       </c>
       <c r="L17">
-        <v>1.033800193281484</v>
+        <v>1.058348852990843</v>
       </c>
       <c r="M17">
-        <v>1.044171596110962</v>
+        <v>1.065462037826759</v>
       </c>
       <c r="N17">
-        <v>1.036827727265</v>
+        <v>1.049040244868193</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009262426934724</v>
+        <v>1.041608627457086</v>
       </c>
       <c r="D18">
-        <v>1.030818057942388</v>
+        <v>1.051127256383959</v>
       </c>
       <c r="E18">
-        <v>1.021125480903934</v>
+        <v>1.055259813047514</v>
       </c>
       <c r="F18">
-        <v>1.031679431498517</v>
+        <v>1.062393884405043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05287987063761</v>
+        <v>1.045346118512694</v>
       </c>
       <c r="J18">
-        <v>1.035980020733049</v>
+        <v>1.047674418981776</v>
       </c>
       <c r="K18">
-        <v>1.044125221271346</v>
+        <v>1.054399991126618</v>
       </c>
       <c r="L18">
-        <v>1.034589259228728</v>
+        <v>1.058518840903609</v>
       </c>
       <c r="M18">
-        <v>1.04497285901744</v>
+        <v>1.06562952498786</v>
       </c>
       <c r="N18">
-        <v>1.037451231191059</v>
+        <v>1.049162236826666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.0096195397713</v>
+        <v>1.041677353258164</v>
       </c>
       <c r="D19">
-        <v>1.03110236561455</v>
+        <v>1.051184024063229</v>
       </c>
       <c r="E19">
-        <v>1.021461732297914</v>
+        <v>1.055332034213418</v>
       </c>
       <c r="F19">
-        <v>1.032018770583879</v>
+        <v>1.062465133604523</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053012812208604</v>
+        <v>1.045366421234193</v>
       </c>
       <c r="J19">
-        <v>1.036191461244026</v>
+        <v>1.047715950228306</v>
       </c>
       <c r="K19">
-        <v>1.044343207360732</v>
+        <v>1.054442498365166</v>
       </c>
       <c r="L19">
-        <v>1.034857399382209</v>
+        <v>1.058576814915158</v>
       </c>
       <c r="M19">
-        <v>1.045245087975067</v>
+        <v>1.065686640160932</v>
       </c>
       <c r="N19">
-        <v>1.037662971971814</v>
+        <v>1.04920382705233</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008017130727196</v>
+        <v>1.041370024395965</v>
       </c>
       <c r="D20">
-        <v>1.029826928375829</v>
+        <v>1.050930170793795</v>
       </c>
       <c r="E20">
-        <v>1.019953783691857</v>
+        <v>1.055009143762603</v>
       </c>
       <c r="F20">
-        <v>1.030496750300372</v>
+        <v>1.062146566034426</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052415525854577</v>
+        <v>1.045275531455386</v>
       </c>
       <c r="J20">
-        <v>1.035242465607594</v>
+        <v>1.04753018955883</v>
       </c>
       <c r="K20">
-        <v>1.043364827714464</v>
+        <v>1.054252367576992</v>
       </c>
       <c r="L20">
-        <v>1.033654615230611</v>
+        <v>1.058317590947399</v>
       </c>
       <c r="M20">
-        <v>1.044023741146197</v>
+        <v>1.065431232860412</v>
       </c>
       <c r="N20">
-        <v>1.036712628652727</v>
+        <v>1.049017802581395</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002711463608853</v>
+        <v>1.040371384171175</v>
       </c>
       <c r="D21">
-        <v>1.025609215390828</v>
+        <v>1.050105316957156</v>
       </c>
       <c r="E21">
-        <v>1.014976220172168</v>
+        <v>1.053961150558494</v>
       </c>
       <c r="F21">
-        <v>1.025468747628318</v>
+        <v>1.061112205976336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050424547973898</v>
+        <v>1.044978440986526</v>
       </c>
       <c r="J21">
-        <v>1.032096255454886</v>
+        <v>1.04692586119152</v>
       </c>
       <c r="K21">
-        <v>1.040121130583742</v>
+        <v>1.053633739686766</v>
       </c>
       <c r="L21">
-        <v>1.029679311791877</v>
+        <v>1.057475702310983</v>
       </c>
       <c r="M21">
-        <v>1.039983154839317</v>
+        <v>1.064601326752959</v>
       </c>
       <c r="N21">
-        <v>1.033561950520727</v>
+        <v>1.048412615998487</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9992984567203511</v>
+        <v>1.039743900726704</v>
       </c>
       <c r="D22">
-        <v>1.022900489127123</v>
+        <v>1.049587049352607</v>
       </c>
       <c r="E22">
-        <v>1.011786349022973</v>
+        <v>1.053303588582417</v>
       </c>
       <c r="F22">
-        <v>1.022243469448993</v>
+        <v>1.060462893122471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049133767210544</v>
+        <v>1.044790426057117</v>
       </c>
       <c r="J22">
-        <v>1.03006947200574</v>
+        <v>1.046545592630902</v>
       </c>
       <c r="K22">
-        <v>1.038031535991446</v>
+        <v>1.053244410506297</v>
       </c>
       <c r="L22">
-        <v>1.027127877037602</v>
+        <v>1.056947049687222</v>
       </c>
       <c r="M22">
-        <v>1.037386792902232</v>
+        <v>1.064079881742042</v>
       </c>
       <c r="N22">
-        <v>1.031532288806608</v>
+        <v>1.048031807412895</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001115299294656</v>
+        <v>1.040076503140512</v>
       </c>
       <c r="D23">
-        <v>1.024341985052078</v>
+        <v>1.04986175907857</v>
       </c>
       <c r="E23">
-        <v>1.01348325635119</v>
+        <v>1.05365204587698</v>
       </c>
       <c r="F23">
-        <v>1.02395950348314</v>
+        <v>1.060807007972192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049821816118454</v>
+        <v>1.044890211980513</v>
       </c>
       <c r="J23">
-        <v>1.031148647465097</v>
+        <v>1.046747208607342</v>
       </c>
       <c r="K23">
-        <v>1.03914415376391</v>
+        <v>1.053450836288889</v>
       </c>
       <c r="L23">
-        <v>1.028485519171575</v>
+        <v>1.057227233924477</v>
       </c>
       <c r="M23">
-        <v>1.038768626367847</v>
+        <v>1.064356276007077</v>
       </c>
       <c r="N23">
-        <v>1.032612996818901</v>
+        <v>1.048233709707148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008104823963071</v>
+        <v>1.041386773448122</v>
       </c>
       <c r="D24">
-        <v>1.029896708698938</v>
+        <v>1.050944005415098</v>
       </c>
       <c r="E24">
-        <v>1.020036250958142</v>
+        <v>1.055026736331172</v>
       </c>
       <c r="F24">
-        <v>1.0305800019949</v>
+        <v>1.062163924571851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052448263113169</v>
+        <v>1.045280491447862</v>
       </c>
       <c r="J24">
-        <v>1.035294415741941</v>
+        <v>1.047540315988173</v>
       </c>
       <c r="K24">
-        <v>1.043418386761702</v>
+        <v>1.054262732547501</v>
       </c>
       <c r="L24">
-        <v>1.03372041247863</v>
+        <v>1.058331716690417</v>
       </c>
       <c r="M24">
-        <v>1.044090568518342</v>
+        <v>1.065445152181923</v>
       </c>
       <c r="N24">
-        <v>1.036764652562224</v>
+        <v>1.04902794339143</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01590203339166</v>
+        <v>1.042908977038561</v>
       </c>
       <c r="D25">
-        <v>1.036109911364541</v>
+        <v>1.052201369849379</v>
       </c>
       <c r="E25">
-        <v>1.027395531163644</v>
+        <v>1.056627828303711</v>
       </c>
       <c r="F25">
-        <v>1.038002153983165</v>
+        <v>1.063742985772942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055334698799742</v>
+        <v>1.045728045020033</v>
       </c>
       <c r="J25">
-        <v>1.039905831317651</v>
+        <v>1.04845931848593</v>
       </c>
       <c r="K25">
-        <v>1.04817238481687</v>
+        <v>1.055203230960114</v>
       </c>
       <c r="L25">
-        <v>1.039582947438618</v>
+        <v>1.05961630879211</v>
       </c>
       <c r="M25">
-        <v>1.050037847735586</v>
+        <v>1.066710212189116</v>
       </c>
       <c r="N25">
-        <v>1.041382616876988</v>
+        <v>1.049948250978145</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04412441691274</v>
+        <v>1.021890146922327</v>
       </c>
       <c r="D2">
-        <v>1.053205378258711</v>
+        <v>1.040892857403276</v>
       </c>
       <c r="E2">
-        <v>1.057909509656376</v>
+        <v>1.033085078578669</v>
       </c>
       <c r="F2">
-        <v>1.065005961470826</v>
+        <v>1.043729988997829</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046080679249341</v>
+        <v>1.057515055617479</v>
       </c>
       <c r="J2">
-        <v>1.049191183350932</v>
+        <v>1.04343527470707</v>
       </c>
       <c r="K2">
-        <v>1.055951989628414</v>
+        <v>1.051810436029696</v>
       </c>
       <c r="L2">
-        <v>1.060643189174065</v>
+        <v>1.04410195338282</v>
       </c>
       <c r="M2">
-        <v>1.06772036649294</v>
+        <v>1.054611944938482</v>
       </c>
       <c r="N2">
-        <v>1.050681155175201</v>
+        <v>1.044917072480853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045007687974078</v>
+        <v>1.026114112183713</v>
       </c>
       <c r="D3">
-        <v>1.053935011560526</v>
+        <v>1.044272358756194</v>
       </c>
       <c r="E3">
-        <v>1.05884279773517</v>
+        <v>1.037119629713842</v>
       </c>
       <c r="F3">
-        <v>1.06592500943221</v>
+        <v>1.04778573176766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046334198122602</v>
+        <v>1.059031272806409</v>
       </c>
       <c r="J3">
-        <v>1.049721909684294</v>
+        <v>1.045917338703119</v>
       </c>
       <c r="K3">
-        <v>1.056494834988576</v>
+        <v>1.054368451066453</v>
       </c>
       <c r="L3">
-        <v>1.06139010337202</v>
+        <v>1.047298605508623</v>
       </c>
       <c r="M3">
-        <v>1.068454470075673</v>
+        <v>1.05784162355673</v>
       </c>
       <c r="N3">
-        <v>1.051212635200832</v>
+        <v>1.047402661292473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045579565676865</v>
+        <v>1.028792997649711</v>
       </c>
       <c r="D4">
-        <v>1.054407417981282</v>
+        <v>1.04641801381345</v>
       </c>
       <c r="E4">
-        <v>1.059447926233275</v>
+        <v>1.039688004141075</v>
       </c>
       <c r="F4">
-        <v>1.066520618901129</v>
+        <v>1.050364840747392</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046497069572438</v>
+        <v>1.059982548432235</v>
       </c>
       <c r="J4">
-        <v>1.050065008084149</v>
+        <v>1.047487790666177</v>
       </c>
       <c r="K4">
-        <v>1.056845706469799</v>
+        <v>1.055986721863213</v>
       </c>
       <c r="L4">
-        <v>1.061874004772537</v>
+        <v>1.049329911846266</v>
       </c>
       <c r="M4">
-        <v>1.068929773769331</v>
+        <v>1.059891155263478</v>
       </c>
       <c r="N4">
-        <v>1.051556220839768</v>
+        <v>1.048975343477452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045820063759308</v>
+        <v>1.029906627438943</v>
       </c>
       <c r="D5">
-        <v>1.054606084350998</v>
+        <v>1.047310497830985</v>
       </c>
       <c r="E5">
-        <v>1.059702614881722</v>
+        <v>1.040757975630721</v>
       </c>
       <c r="F5">
-        <v>1.066771232770562</v>
+        <v>1.051438623146931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046565259420685</v>
+        <v>1.060375486206694</v>
       </c>
       <c r="J5">
-        <v>1.050209169714762</v>
+        <v>1.048139721375967</v>
       </c>
       <c r="K5">
-        <v>1.056993119361037</v>
+        <v>1.056658440741124</v>
       </c>
       <c r="L5">
-        <v>1.062077578780311</v>
+        <v>1.050175259199663</v>
       </c>
       <c r="M5">
-        <v>1.069129659440613</v>
+        <v>1.060743423008919</v>
       </c>
       <c r="N5">
-        <v>1.051700587196432</v>
+        <v>1.049628200003627</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045860449141605</v>
+        <v>1.03009288548389</v>
       </c>
       <c r="D6">
-        <v>1.054639445177199</v>
+        <v>1.047459798091525</v>
       </c>
       <c r="E6">
-        <v>1.059745395341987</v>
+        <v>1.040937065105356</v>
       </c>
       <c r="F6">
-        <v>1.066813324777135</v>
+        <v>1.051618311637441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046576692280437</v>
+        <v>1.060441057477318</v>
       </c>
       <c r="J6">
-        <v>1.050233370545063</v>
+        <v>1.048248704144449</v>
       </c>
       <c r="K6">
-        <v>1.057017865119711</v>
+        <v>1.056770727643974</v>
       </c>
       <c r="L6">
-        <v>1.062111768033019</v>
+        <v>1.050316699470646</v>
       </c>
       <c r="M6">
-        <v>1.069163225073205</v>
+        <v>1.060885982076666</v>
       </c>
       <c r="N6">
-        <v>1.051724822394688</v>
+        <v>1.049737337540141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045582778908482</v>
+        <v>1.028807926880577</v>
       </c>
       <c r="D7">
-        <v>1.054410072310785</v>
+        <v>1.046429976373152</v>
       </c>
       <c r="E7">
-        <v>1.059451328247544</v>
+        <v>1.039702339112064</v>
       </c>
       <c r="F7">
-        <v>1.066523966754797</v>
+        <v>1.0503792293838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046497981834727</v>
+        <v>1.059987826099706</v>
       </c>
       <c r="J7">
-        <v>1.050066934682524</v>
+        <v>1.047496534052338</v>
       </c>
       <c r="K7">
-        <v>1.056847676576788</v>
+        <v>1.055995730893439</v>
       </c>
       <c r="L7">
-        <v>1.061876724382607</v>
+        <v>1.049341240905834</v>
       </c>
       <c r="M7">
-        <v>1.068932444385931</v>
+        <v>1.059902579692852</v>
       </c>
       <c r="N7">
-        <v>1.051558150174133</v>
+        <v>1.048984099280223</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044422850887739</v>
+        <v>1.023329162696821</v>
       </c>
       <c r="D8">
-        <v>1.05345190136523</v>
+        <v>1.04204366755923</v>
       </c>
       <c r="E8">
-        <v>1.058224663402723</v>
+        <v>1.034457532689281</v>
       </c>
       <c r="F8">
-        <v>1.065316365780467</v>
+        <v>1.045110228360774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046166599445485</v>
+        <v>1.05803374123043</v>
       </c>
       <c r="J8">
-        <v>1.049370609817215</v>
+        <v>1.044281619704763</v>
       </c>
       <c r="K8">
-        <v>1.05613552595755</v>
+        <v>1.052682725362171</v>
       </c>
       <c r="L8">
-        <v>1.06089548773097</v>
+        <v>1.045190138614361</v>
       </c>
       <c r="M8">
-        <v>1.067968399475176</v>
+        <v>1.055711949879292</v>
       </c>
       <c r="N8">
-        <v>1.050860836447647</v>
+        <v>1.04576461938552</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042381585726858</v>
+        <v>1.013238771533848</v>
       </c>
       <c r="D9">
-        <v>1.051765729465127</v>
+        <v>1.033985777956298</v>
       </c>
       <c r="E9">
-        <v>1.056072601119877</v>
+        <v>1.024875797282615</v>
       </c>
       <c r="F9">
-        <v>1.063195563886838</v>
+        <v>1.035462519119636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045573713582563</v>
+        <v>1.05435442736349</v>
       </c>
       <c r="J9">
-        <v>1.048141214304249</v>
+        <v>1.038332542721995</v>
       </c>
       <c r="K9">
-        <v>1.054877720803433</v>
+        <v>1.046550515463352</v>
       </c>
       <c r="L9">
-        <v>1.059171060420324</v>
+        <v>1.037577774675192</v>
       </c>
       <c r="M9">
-        <v>1.066271905806977</v>
+        <v>1.048005298989142</v>
       </c>
       <c r="N9">
-        <v>1.049629695052039</v>
+        <v>1.039807094031067</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041022614673324</v>
+        <v>1.006188657166879</v>
       </c>
       <c r="D10">
-        <v>1.05064321441152</v>
+        <v>1.02837246077776</v>
       </c>
       <c r="E10">
-        <v>1.054644355862133</v>
+        <v>1.018235750769616</v>
       </c>
       <c r="F10">
-        <v>1.061786592136019</v>
+        <v>1.028761989980095</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045172480461326</v>
+        <v>1.051731635977953</v>
       </c>
       <c r="J10">
-        <v>1.047320077062196</v>
+        <v>1.034158870256943</v>
       </c>
       <c r="K10">
-        <v>1.054037297582125</v>
+        <v>1.042247665311509</v>
       </c>
       <c r="L10">
-        <v>1.05802463671476</v>
+        <v>1.032283378209207</v>
       </c>
       <c r="M10">
-        <v>1.065142519392152</v>
+        <v>1.042630656119839</v>
       </c>
       <c r="N10">
-        <v>1.048807391700916</v>
+        <v>1.035627494472388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040434624406201</v>
+        <v>1.003052004214735</v>
       </c>
       <c r="D11">
-        <v>1.050157550863614</v>
+        <v>1.025879676905244</v>
       </c>
       <c r="E11">
-        <v>1.054027461763234</v>
+        <v>1.015295008132101</v>
       </c>
       <c r="F11">
-        <v>1.06117767236134</v>
+        <v>1.025790944442504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04499733300944</v>
+        <v>1.050552923293023</v>
       </c>
       <c r="J11">
-        <v>1.046964163017937</v>
+        <v>1.032298365125574</v>
       </c>
       <c r="K11">
-        <v>1.053672951476536</v>
+        <v>1.040329504243088</v>
       </c>
       <c r="L11">
-        <v>1.057528996345271</v>
+        <v>1.029934134476398</v>
       </c>
       <c r="M11">
-        <v>1.064653880750297</v>
+        <v>1.040242337640332</v>
       </c>
       <c r="N11">
-        <v>1.04845097221789</v>
+        <v>1.03376434721033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0402162879005</v>
+        <v>1.001873643921741</v>
       </c>
       <c r="D12">
-        <v>1.049977214294108</v>
+        <v>1.024943956341575</v>
       </c>
       <c r="E12">
-        <v>1.053798553541171</v>
+        <v>1.014192315426683</v>
       </c>
       <c r="F12">
-        <v>1.0609516704025</v>
+        <v>1.024676359219473</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044932064119551</v>
+        <v>1.050108384016297</v>
       </c>
       <c r="J12">
-        <v>1.04683190818133</v>
+        <v>1.031598918905455</v>
       </c>
       <c r="K12">
-        <v>1.053537552500514</v>
+        <v>1.039608380093662</v>
       </c>
       <c r="L12">
-        <v>1.057345010204508</v>
+        <v>1.02905257222303</v>
       </c>
       <c r="M12">
-        <v>1.064472438966891</v>
+        <v>1.039345592249893</v>
       </c>
       <c r="N12">
-        <v>1.048318529564246</v>
+        <v>1.03306390769635</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040263118669058</v>
+        <v>1.002127017706815</v>
       </c>
       <c r="D13">
-        <v>1.050015894339239</v>
+        <v>1.025145122084004</v>
       </c>
       <c r="E13">
-        <v>1.053847644531461</v>
+        <v>1.014429324736053</v>
       </c>
       <c r="F13">
-        <v>1.061000140512257</v>
+        <v>1.024915948640956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044946074070753</v>
+        <v>1.05020404714422</v>
       </c>
       <c r="J13">
-        <v>1.04686027965299</v>
+        <v>1.031749337498458</v>
       </c>
       <c r="K13">
-        <v>1.053566598946715</v>
+        <v>1.039763460583902</v>
       </c>
       <c r="L13">
-        <v>1.057384470552041</v>
+        <v>1.029242082374708</v>
       </c>
       <c r="M13">
-        <v>1.0645113560928</v>
+        <v>1.039538389830178</v>
       </c>
       <c r="N13">
-        <v>1.048346941326649</v>
+        <v>1.03321453990101</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040416575222833</v>
+        <v>1.00295487522432</v>
       </c>
       <c r="D14">
-        <v>1.050142642943911</v>
+        <v>1.025802532346566</v>
       </c>
       <c r="E14">
-        <v>1.054008535361731</v>
+        <v>1.01520407387804</v>
       </c>
       <c r="F14">
-        <v>1.061158987329764</v>
+        <v>1.025699040250299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044991942169965</v>
+        <v>1.050516315973756</v>
       </c>
       <c r="J14">
-        <v>1.046953231857349</v>
+        <v>1.032240721673628</v>
       </c>
       <c r="K14">
-        <v>1.053661760666654</v>
+        <v>1.040270074249845</v>
       </c>
       <c r="L14">
-        <v>1.057513785604196</v>
+        <v>1.029861449363376</v>
       </c>
       <c r="M14">
-        <v>1.064638881476922</v>
+        <v>1.040168411246817</v>
       </c>
       <c r="N14">
-        <v>1.048440025533801</v>
+        <v>1.03370662189807</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04051113408317</v>
+        <v>1.003463166927677</v>
       </c>
       <c r="D15">
-        <v>1.050220745002822</v>
+        <v>1.02620627341245</v>
       </c>
       <c r="E15">
-        <v>1.054107696527017</v>
+        <v>1.015680032155124</v>
       </c>
       <c r="F15">
-        <v>1.061256881723651</v>
+        <v>1.02618005364842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04502017503587</v>
+        <v>1.050707817871042</v>
       </c>
       <c r="J15">
-        <v>1.047010495849692</v>
+        <v>1.032542358946176</v>
       </c>
       <c r="K15">
-        <v>1.053720384414229</v>
+        <v>1.040581060103059</v>
       </c>
       <c r="L15">
-        <v>1.057593476385979</v>
+        <v>1.030241862883541</v>
       </c>
       <c r="M15">
-        <v>1.064717462112835</v>
+        <v>1.040555300069092</v>
       </c>
       <c r="N15">
-        <v>1.048497370847582</v>
+        <v>1.034008687530143</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041061647298909</v>
+        <v>1.00639500318388</v>
       </c>
       <c r="D16">
-        <v>1.050675454704756</v>
+        <v>1.02853655098631</v>
       </c>
       <c r="E16">
-        <v>1.054685329783546</v>
+        <v>1.018429493234939</v>
       </c>
       <c r="F16">
-        <v>1.061827029007878</v>
+        <v>1.028957655322556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045184074750062</v>
+        <v>1.051808935876619</v>
       </c>
       <c r="J16">
-        <v>1.047343690485881</v>
+        <v>1.034281192535769</v>
       </c>
       <c r="K16">
-        <v>1.054061468912738</v>
+        <v>1.042373777475466</v>
       </c>
       <c r="L16">
-        <v>1.058057547037595</v>
+        <v>1.032438058786249</v>
       </c>
       <c r="M16">
-        <v>1.065174957123362</v>
+        <v>1.042787837204395</v>
       </c>
       <c r="N16">
-        <v>1.048831038658372</v>
+        <v>1.035749990462881</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041407091849962</v>
+        <v>1.008211148788687</v>
       </c>
       <c r="D17">
-        <v>1.050960788310676</v>
+        <v>1.029981317750975</v>
       </c>
       <c r="E17">
-        <v>1.055048078714542</v>
+        <v>1.020136248228388</v>
       </c>
       <c r="F17">
-        <v>1.062184982809505</v>
+        <v>1.030680948144867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04528650743266</v>
+        <v>1.052487948114614</v>
       </c>
       <c r="J17">
-        <v>1.047552600020201</v>
+        <v>1.035357400998428</v>
       </c>
       <c r="K17">
-        <v>1.054275305897796</v>
+        <v>1.043483322640231</v>
       </c>
       <c r="L17">
-        <v>1.058348852990843</v>
+        <v>1.033800193281484</v>
       </c>
       <c r="M17">
-        <v>1.065462037826759</v>
+        <v>1.044171596110961</v>
       </c>
       <c r="N17">
-        <v>1.049040244868193</v>
+        <v>1.036827727264999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041608627457086</v>
+        <v>1.009262426934724</v>
       </c>
       <c r="D18">
-        <v>1.051127256383959</v>
+        <v>1.030818057942388</v>
       </c>
       <c r="E18">
-        <v>1.055259813047514</v>
+        <v>1.021125480903935</v>
       </c>
       <c r="F18">
-        <v>1.062393884405043</v>
+        <v>1.031679431498517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045346118512694</v>
+        <v>1.05287987063761</v>
       </c>
       <c r="J18">
-        <v>1.047674418981776</v>
+        <v>1.035980020733049</v>
       </c>
       <c r="K18">
-        <v>1.054399991126618</v>
+        <v>1.044125221271346</v>
       </c>
       <c r="L18">
-        <v>1.058518840903609</v>
+        <v>1.034589259228728</v>
       </c>
       <c r="M18">
-        <v>1.06562952498786</v>
+        <v>1.04497285901744</v>
       </c>
       <c r="N18">
-        <v>1.049162236826666</v>
+        <v>1.037451231191058</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041677353258164</v>
+        <v>1.0096195397713</v>
       </c>
       <c r="D19">
-        <v>1.051184024063229</v>
+        <v>1.03110236561455</v>
       </c>
       <c r="E19">
-        <v>1.055332034213418</v>
+        <v>1.021461732297915</v>
       </c>
       <c r="F19">
-        <v>1.062465133604523</v>
+        <v>1.032018770583879</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045366421234193</v>
+        <v>1.053012812208605</v>
       </c>
       <c r="J19">
-        <v>1.047715950228306</v>
+        <v>1.036191461244026</v>
       </c>
       <c r="K19">
-        <v>1.054442498365166</v>
+        <v>1.044343207360733</v>
       </c>
       <c r="L19">
-        <v>1.058576814915158</v>
+        <v>1.034857399382209</v>
       </c>
       <c r="M19">
-        <v>1.065686640160932</v>
+        <v>1.045245087975067</v>
       </c>
       <c r="N19">
-        <v>1.04920382705233</v>
+        <v>1.037662971971814</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041370024395965</v>
+        <v>1.008017130727197</v>
       </c>
       <c r="D20">
-        <v>1.050930170793795</v>
+        <v>1.02982692837583</v>
       </c>
       <c r="E20">
-        <v>1.055009143762603</v>
+        <v>1.019953783691858</v>
       </c>
       <c r="F20">
-        <v>1.062146566034426</v>
+        <v>1.030496750300372</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045275531455386</v>
+        <v>1.052415525854578</v>
       </c>
       <c r="J20">
-        <v>1.04753018955883</v>
+        <v>1.035242465607594</v>
       </c>
       <c r="K20">
-        <v>1.054252367576992</v>
+        <v>1.043364827714464</v>
       </c>
       <c r="L20">
-        <v>1.058317590947399</v>
+        <v>1.033654615230611</v>
       </c>
       <c r="M20">
-        <v>1.065431232860412</v>
+        <v>1.044023741146197</v>
       </c>
       <c r="N20">
-        <v>1.049017802581395</v>
+        <v>1.036712628652727</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040371384171175</v>
+        <v>1.002711463608853</v>
       </c>
       <c r="D21">
-        <v>1.050105316957156</v>
+        <v>1.025609215390827</v>
       </c>
       <c r="E21">
-        <v>1.053961150558494</v>
+        <v>1.014976220172168</v>
       </c>
       <c r="F21">
-        <v>1.061112205976336</v>
+        <v>1.025468747628318</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044978440986526</v>
+        <v>1.050424547973898</v>
       </c>
       <c r="J21">
-        <v>1.04692586119152</v>
+        <v>1.032096255454885</v>
       </c>
       <c r="K21">
-        <v>1.053633739686766</v>
+        <v>1.040121130583742</v>
       </c>
       <c r="L21">
-        <v>1.057475702310983</v>
+        <v>1.029679311791877</v>
       </c>
       <c r="M21">
-        <v>1.064601326752959</v>
+        <v>1.039983154839317</v>
       </c>
       <c r="N21">
-        <v>1.048412615998487</v>
+        <v>1.033561950520727</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039743900726704</v>
+        <v>0.999298456720351</v>
       </c>
       <c r="D22">
-        <v>1.049587049352607</v>
+        <v>1.022900489127123</v>
       </c>
       <c r="E22">
-        <v>1.053303588582417</v>
+        <v>1.011786349022973</v>
       </c>
       <c r="F22">
-        <v>1.060462893122471</v>
+        <v>1.022243469448993</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044790426057117</v>
+        <v>1.049133767210544</v>
       </c>
       <c r="J22">
-        <v>1.046545592630902</v>
+        <v>1.03006947200574</v>
       </c>
       <c r="K22">
-        <v>1.053244410506297</v>
+        <v>1.038031535991446</v>
       </c>
       <c r="L22">
-        <v>1.056947049687222</v>
+        <v>1.027127877037602</v>
       </c>
       <c r="M22">
-        <v>1.064079881742042</v>
+        <v>1.037386792902233</v>
       </c>
       <c r="N22">
-        <v>1.048031807412895</v>
+        <v>1.031532288806608</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040076503140512</v>
+        <v>1.001115299294657</v>
       </c>
       <c r="D23">
-        <v>1.04986175907857</v>
+        <v>1.024341985052079</v>
       </c>
       <c r="E23">
-        <v>1.05365204587698</v>
+        <v>1.013483256351191</v>
       </c>
       <c r="F23">
-        <v>1.060807007972192</v>
+        <v>1.02395950348314</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044890211980513</v>
+        <v>1.049821816118454</v>
       </c>
       <c r="J23">
-        <v>1.046747208607342</v>
+        <v>1.031148647465097</v>
       </c>
       <c r="K23">
-        <v>1.053450836288889</v>
+        <v>1.03914415376391</v>
       </c>
       <c r="L23">
-        <v>1.057227233924477</v>
+        <v>1.028485519171575</v>
       </c>
       <c r="M23">
-        <v>1.064356276007077</v>
+        <v>1.038768626367847</v>
       </c>
       <c r="N23">
-        <v>1.048233709707148</v>
+        <v>1.032612996818901</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041386773448122</v>
+        <v>1.00810482396307</v>
       </c>
       <c r="D24">
-        <v>1.050944005415098</v>
+        <v>1.029896708698937</v>
       </c>
       <c r="E24">
-        <v>1.055026736331172</v>
+        <v>1.020036250958141</v>
       </c>
       <c r="F24">
-        <v>1.062163924571851</v>
+        <v>1.0305800019949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045280491447862</v>
+        <v>1.052448263113169</v>
       </c>
       <c r="J24">
-        <v>1.047540315988173</v>
+        <v>1.035294415741941</v>
       </c>
       <c r="K24">
-        <v>1.054262732547501</v>
+        <v>1.043418386761702</v>
       </c>
       <c r="L24">
-        <v>1.058331716690417</v>
+        <v>1.03372041247863</v>
       </c>
       <c r="M24">
-        <v>1.065445152181923</v>
+        <v>1.044090568518341</v>
       </c>
       <c r="N24">
-        <v>1.04902794339143</v>
+        <v>1.036764652562224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042908977038561</v>
+        <v>1.015902033391659</v>
       </c>
       <c r="D25">
-        <v>1.052201369849379</v>
+        <v>1.036109911364541</v>
       </c>
       <c r="E25">
-        <v>1.056627828303711</v>
+        <v>1.027395531163644</v>
       </c>
       <c r="F25">
-        <v>1.063742985772942</v>
+        <v>1.038002153983165</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045728045020033</v>
+        <v>1.055334698799742</v>
       </c>
       <c r="J25">
-        <v>1.04845931848593</v>
+        <v>1.03990583131765</v>
       </c>
       <c r="K25">
-        <v>1.055203230960114</v>
+        <v>1.04817238481687</v>
       </c>
       <c r="L25">
-        <v>1.05961630879211</v>
+        <v>1.039582947438619</v>
       </c>
       <c r="M25">
-        <v>1.066710212189116</v>
+        <v>1.050037847735586</v>
       </c>
       <c r="N25">
-        <v>1.049948250978145</v>
+        <v>1.041382616876987</v>
       </c>
     </row>
   </sheetData>
